--- a/public/excel/format_pbj/makassar20mei.xlsx
+++ b/public/excel/format_pbj/makassar20mei.xlsx
@@ -8,14 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\membership_laravel\public\excel\format_pbj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F89B3B32-1AC0-484B-8241-DF4B0310061F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E4590BE-A6D1-45B2-9BFD-1EF8FE42FFC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1025,9 +1033,9 @@
   </sheetPr>
   <dimension ref="A1:AB15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="V1" sqref="V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
